--- a/Jan'2021/Daily Sales Details/16.01.2021/BL Sales Info...xlsx
+++ b/Jan'2021/Daily Sales Details/16.01.2021/BL Sales Info...xlsx
@@ -25,7 +25,7 @@
     <author>*</author>
   </authors>
   <commentList>
-    <comment ref="AR36" authorId="0">
+    <comment ref="AR38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -33,7 +33,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>*:</t>
         </r>
@@ -42,7 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 chair+Mistiri+House Rant</t>
@@ -879,9 +879,6 @@
     <t>13.01.2021</t>
   </si>
   <si>
-    <t>Date :14-01-2021</t>
-  </si>
-  <si>
     <t>Date:14.01.2021</t>
   </si>
   <si>
@@ -952,6 +949,9 @@
   </si>
   <si>
     <t>Date:16.01.2021</t>
+  </si>
+  <si>
+    <t>Date :17-01-2021</t>
   </si>
 </sst>
 </file>
@@ -3221,6 +3221,57 @@
     <xf numFmtId="0" fontId="37" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3243,57 +3294,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3967,10 +3967,10 @@
   <dimension ref="A1:BD65541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="25" ySplit="8" topLeftCell="AA24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="25" ySplit="8" topLeftCell="Z24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="3" spans="1:56" ht="18.75">
       <c r="A3" s="348" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="349"/>
       <c r="C3" s="350"/>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="235">
-        <f t="shared" si="16"/>
+        <f>K4+K5-K29</f>
         <v>2080</v>
       </c>
       <c r="L30" s="235">
@@ -7249,7 +7249,7 @@
         <v>111</v>
       </c>
       <c r="AT33" s="48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AU33" s="245"/>
       <c r="AV33" s="247"/>
@@ -7490,7 +7490,7 @@
         <v>1610</v>
       </c>
       <c r="AS43" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AT43" s="246"/>
     </row>
@@ -8930,7 +8930,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="65">
         <v>260000</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="54">
         <v>0</v>
@@ -10434,7 +10434,7 @@
     </row>
     <row r="2" spans="1:12" ht="21.75">
       <c r="A2" s="364" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="365"/>
       <c r="C2" s="365"/>
@@ -10626,10 +10626,10 @@
       </c>
       <c r="I11" s="266"/>
       <c r="J11" s="263" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="262" t="s">
         <v>183</v>
-      </c>
-      <c r="K11" s="262" t="s">
-        <v>184</v>
       </c>
       <c r="L11" s="262">
         <v>942</v>
@@ -10843,70 +10843,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="372" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
-      <c r="M1" s="380"/>
-      <c r="N1" s="380"/>
-      <c r="O1" s="380"/>
-      <c r="P1" s="380"/>
-      <c r="Q1" s="380"/>
-      <c r="R1" s="380"/>
+      <c r="B1" s="372"/>
+      <c r="C1" s="372"/>
+      <c r="D1" s="372"/>
+      <c r="E1" s="372"/>
+      <c r="F1" s="372"/>
+      <c r="G1" s="372"/>
+      <c r="H1" s="372"/>
+      <c r="I1" s="372"/>
+      <c r="J1" s="372"/>
+      <c r="K1" s="372"/>
+      <c r="L1" s="372"/>
+      <c r="M1" s="372"/>
+      <c r="N1" s="372"/>
+      <c r="O1" s="372"/>
+      <c r="P1" s="372"/>
+      <c r="Q1" s="372"/>
+      <c r="R1" s="372"/>
     </row>
     <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="381" t="s">
+      <c r="A2" s="373" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="381"/>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
-      <c r="F2" s="381"/>
-      <c r="G2" s="381"/>
-      <c r="H2" s="381"/>
-      <c r="I2" s="381"/>
-      <c r="J2" s="381"/>
-      <c r="K2" s="381"/>
-      <c r="L2" s="381"/>
-      <c r="M2" s="381"/>
-      <c r="N2" s="381"/>
-      <c r="O2" s="381"/>
-      <c r="P2" s="381"/>
-      <c r="Q2" s="381"/>
-      <c r="R2" s="381"/>
+      <c r="B2" s="373"/>
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373"/>
+      <c r="F2" s="373"/>
+      <c r="G2" s="373"/>
+      <c r="H2" s="373"/>
+      <c r="I2" s="373"/>
+      <c r="J2" s="373"/>
+      <c r="K2" s="373"/>
+      <c r="L2" s="373"/>
+      <c r="M2" s="373"/>
+      <c r="N2" s="373"/>
+      <c r="O2" s="373"/>
+      <c r="P2" s="373"/>
+      <c r="Q2" s="373"/>
+      <c r="R2" s="373"/>
     </row>
     <row r="3" spans="1:25" s="108" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="390" t="s">
+      <c r="A3" s="382" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="391"/>
-      <c r="C3" s="391"/>
-      <c r="D3" s="391"/>
-      <c r="E3" s="391"/>
-      <c r="F3" s="391"/>
-      <c r="G3" s="391"/>
-      <c r="H3" s="391"/>
-      <c r="I3" s="391"/>
-      <c r="J3" s="391"/>
-      <c r="K3" s="391"/>
-      <c r="L3" s="391"/>
-      <c r="M3" s="391"/>
-      <c r="N3" s="391"/>
-      <c r="O3" s="391"/>
-      <c r="P3" s="391"/>
-      <c r="Q3" s="391"/>
-      <c r="R3" s="392"/>
+      <c r="B3" s="383"/>
+      <c r="C3" s="383"/>
+      <c r="D3" s="383"/>
+      <c r="E3" s="383"/>
+      <c r="F3" s="383"/>
+      <c r="G3" s="383"/>
+      <c r="H3" s="383"/>
+      <c r="I3" s="383"/>
+      <c r="J3" s="383"/>
+      <c r="K3" s="383"/>
+      <c r="L3" s="383"/>
+      <c r="M3" s="383"/>
+      <c r="N3" s="383"/>
+      <c r="O3" s="383"/>
+      <c r="P3" s="383"/>
+      <c r="Q3" s="383"/>
+      <c r="R3" s="384"/>
       <c r="T3" s="109"/>
       <c r="U3" s="110"/>
       <c r="V3" s="110"/>
@@ -10915,55 +10915,55 @@
       <c r="Y3" s="111"/>
     </row>
     <row r="4" spans="1:25" s="111" customFormat="1">
-      <c r="A4" s="382" t="s">
+      <c r="A4" s="374" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="384" t="s">
+      <c r="B4" s="376" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="384" t="s">
+      <c r="C4" s="376" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="378" t="s">
+      <c r="D4" s="370" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="378" t="s">
+      <c r="E4" s="370" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="378" t="s">
+      <c r="F4" s="370" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="378" t="s">
+      <c r="G4" s="370" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="378" t="s">
+      <c r="H4" s="370" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="378" t="s">
+      <c r="I4" s="370" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="378" t="s">
+      <c r="J4" s="370" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="393" t="s">
+      <c r="K4" s="385" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="370" t="s">
+      <c r="L4" s="387" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="372" t="s">
+      <c r="M4" s="389" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="374" t="s">
+      <c r="N4" s="391" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="376" t="s">
+      <c r="O4" s="393" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="386" t="s">
+      <c r="P4" s="378" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="388" t="s">
+      <c r="Q4" s="380" t="s">
         <v>41</v>
       </c>
       <c r="R4" s="112" t="s">
@@ -10976,23 +10976,23 @@
       <c r="X4" s="110"/>
     </row>
     <row r="5" spans="1:25" s="111" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="383"/>
-      <c r="B5" s="385"/>
-      <c r="C5" s="385"/>
-      <c r="D5" s="379"/>
-      <c r="E5" s="379"/>
-      <c r="F5" s="379"/>
-      <c r="G5" s="379"/>
-      <c r="H5" s="379"/>
-      <c r="I5" s="379"/>
-      <c r="J5" s="379"/>
-      <c r="K5" s="394"/>
-      <c r="L5" s="371"/>
-      <c r="M5" s="373"/>
-      <c r="N5" s="375"/>
-      <c r="O5" s="377"/>
-      <c r="P5" s="387"/>
-      <c r="Q5" s="389"/>
+      <c r="A5" s="375"/>
+      <c r="B5" s="377"/>
+      <c r="C5" s="377"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="371"/>
+      <c r="F5" s="371"/>
+      <c r="G5" s="371"/>
+      <c r="H5" s="371"/>
+      <c r="I5" s="371"/>
+      <c r="J5" s="371"/>
+      <c r="K5" s="386"/>
+      <c r="L5" s="388"/>
+      <c r="M5" s="390"/>
+      <c r="N5" s="392"/>
+      <c r="O5" s="394"/>
+      <c r="P5" s="379"/>
+      <c r="Q5" s="381"/>
       <c r="R5" s="114" t="s">
         <v>43</v>
       </c>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="15" spans="1:25" s="117" customFormat="1">
       <c r="A15" s="118" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="124"/>
       <c r="C15" s="125"/>
@@ -11349,7 +11349,7 @@
     </row>
     <row r="16" spans="1:25" s="117" customFormat="1">
       <c r="A16" s="118" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="124"/>
       <c r="C16" s="125">
@@ -13968,6 +13968,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -13980,14 +13988,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13998,8 +13998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14106,7 +14106,7 @@
     </row>
     <row r="5" spans="1:17" s="247" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="400" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="B5" s="401"/>
       <c r="C5" s="400" t="s">
@@ -14219,20 +14219,14 @@
       <c r="E8" s="308"/>
       <c r="F8" s="308"/>
       <c r="G8" s="308"/>
-      <c r="H8" s="308">
-        <v>50</v>
-      </c>
+      <c r="H8" s="308"/>
       <c r="I8" s="308"/>
       <c r="J8" s="308"/>
       <c r="K8" s="310"/>
       <c r="L8" s="308"/>
       <c r="M8" s="309"/>
-      <c r="N8" s="316">
-        <v>15</v>
-      </c>
-      <c r="O8" s="316">
-        <v>5</v>
-      </c>
+      <c r="N8" s="316"/>
+      <c r="O8" s="316"/>
       <c r="P8" s="316"/>
       <c r="Q8" s="308"/>
     </row>
@@ -14250,9 +14244,7 @@
       <c r="E9" s="308"/>
       <c r="F9" s="308"/>
       <c r="G9" s="308"/>
-      <c r="H9" s="308">
-        <v>100</v>
-      </c>
+      <c r="H9" s="308"/>
       <c r="I9" s="308"/>
       <c r="J9" s="312"/>
       <c r="K9" s="312"/>
@@ -14300,26 +14292,16 @@
       </c>
       <c r="D11" s="311"/>
       <c r="E11" s="308"/>
-      <c r="F11" s="308">
-        <v>50</v>
-      </c>
-      <c r="G11" s="308">
-        <v>50</v>
-      </c>
-      <c r="H11" s="312">
-        <v>80</v>
-      </c>
+      <c r="F11" s="308"/>
+      <c r="G11" s="308"/>
+      <c r="H11" s="312"/>
       <c r="I11" s="308"/>
       <c r="J11" s="312"/>
       <c r="K11" s="312"/>
       <c r="L11" s="308"/>
       <c r="M11" s="309"/>
-      <c r="N11" s="316">
-        <v>5</v>
-      </c>
-      <c r="O11" s="316">
-        <v>5</v>
-      </c>
+      <c r="N11" s="316"/>
+      <c r="O11" s="316"/>
       <c r="P11" s="316"/>
       <c r="Q11" s="317"/>
     </row>
@@ -14360,12 +14342,8 @@
       </c>
       <c r="D13" s="311"/>
       <c r="E13" s="308"/>
-      <c r="F13" s="308">
-        <v>70</v>
-      </c>
-      <c r="G13" s="308">
-        <v>70</v>
-      </c>
+      <c r="F13" s="308"/>
+      <c r="G13" s="308"/>
       <c r="H13" s="308"/>
       <c r="I13" s="308"/>
       <c r="J13" s="312"/>
@@ -14391,20 +14369,14 @@
       <c r="E14" s="308"/>
       <c r="F14" s="308"/>
       <c r="G14" s="308"/>
-      <c r="H14" s="312">
-        <v>70</v>
-      </c>
+      <c r="H14" s="312"/>
       <c r="I14" s="308"/>
       <c r="J14" s="312"/>
       <c r="K14" s="312"/>
       <c r="L14" s="308"/>
       <c r="M14" s="309"/>
-      <c r="N14" s="316">
-        <v>10</v>
-      </c>
-      <c r="O14" s="316">
-        <v>5</v>
-      </c>
+      <c r="N14" s="316"/>
+      <c r="O14" s="316"/>
       <c r="P14" s="316"/>
       <c r="Q14" s="317"/>
     </row>
@@ -14422,25 +14394,15 @@
       <c r="E15" s="308"/>
       <c r="F15" s="308"/>
       <c r="G15" s="308"/>
-      <c r="H15" s="308">
-        <v>50</v>
-      </c>
-      <c r="I15" s="308">
-        <v>50</v>
-      </c>
+      <c r="H15" s="308"/>
+      <c r="I15" s="308"/>
       <c r="J15" s="312"/>
       <c r="K15" s="312"/>
       <c r="L15" s="308"/>
       <c r="M15" s="309"/>
-      <c r="N15" s="316">
-        <v>25</v>
-      </c>
-      <c r="O15" s="316">
-        <v>10</v>
-      </c>
-      <c r="P15" s="316">
-        <v>10</v>
-      </c>
+      <c r="N15" s="316"/>
+      <c r="O15" s="316"/>
+      <c r="P15" s="316"/>
       <c r="Q15" s="317"/>
     </row>
     <row r="16" spans="1:17" ht="18" customHeight="1">
@@ -14457,21 +14419,15 @@
       <c r="E16" s="308"/>
       <c r="F16" s="308"/>
       <c r="G16" s="308"/>
-      <c r="H16" s="308">
-        <v>200</v>
-      </c>
+      <c r="H16" s="308"/>
       <c r="I16" s="308"/>
       <c r="J16" s="312"/>
       <c r="K16" s="312"/>
       <c r="L16" s="308"/>
       <c r="M16" s="309"/>
-      <c r="N16" s="316">
-        <v>5</v>
-      </c>
+      <c r="N16" s="316"/>
       <c r="O16" s="316"/>
-      <c r="P16" s="316">
-        <v>5</v>
-      </c>
+      <c r="P16" s="316"/>
       <c r="Q16" s="317"/>
     </row>
     <row r="17" spans="1:17" ht="18" customHeight="1">
@@ -14487,20 +14443,14 @@
       <c r="D17" s="311"/>
       <c r="E17" s="308"/>
       <c r="F17" s="308"/>
-      <c r="G17" s="308">
-        <v>50</v>
-      </c>
-      <c r="H17" s="312">
-        <v>100</v>
-      </c>
+      <c r="G17" s="308"/>
+      <c r="H17" s="312"/>
       <c r="I17" s="308"/>
       <c r="J17" s="312"/>
       <c r="K17" s="312"/>
       <c r="L17" s="308"/>
       <c r="M17" s="309"/>
-      <c r="N17" s="316">
-        <v>10</v>
-      </c>
+      <c r="N17" s="316"/>
       <c r="O17" s="316"/>
       <c r="P17" s="316"/>
       <c r="Q17" s="317"/>
@@ -14519,22 +14469,14 @@
       <c r="E18" s="308"/>
       <c r="F18" s="308"/>
       <c r="G18" s="308"/>
-      <c r="H18" s="308">
-        <v>50</v>
-      </c>
-      <c r="I18" s="308">
-        <v>50</v>
-      </c>
+      <c r="H18" s="308"/>
+      <c r="I18" s="308"/>
       <c r="J18" s="312"/>
       <c r="K18" s="312"/>
       <c r="L18" s="308"/>
       <c r="M18" s="309"/>
-      <c r="N18" s="316">
-        <v>10</v>
-      </c>
-      <c r="O18" s="316">
-        <v>5</v>
-      </c>
+      <c r="N18" s="316"/>
+      <c r="O18" s="316"/>
       <c r="P18" s="316"/>
       <c r="Q18" s="317"/>
     </row>
@@ -14558,12 +14500,8 @@
       <c r="K19" s="312"/>
       <c r="L19" s="308"/>
       <c r="M19" s="309"/>
-      <c r="N19" s="316">
-        <v>50</v>
-      </c>
-      <c r="O19" s="316">
-        <v>5</v>
-      </c>
+      <c r="N19" s="316"/>
+      <c r="O19" s="316"/>
       <c r="P19" s="316"/>
       <c r="Q19" s="317"/>
     </row>
@@ -14606,22 +14544,14 @@
       <c r="E21" s="308"/>
       <c r="F21" s="308"/>
       <c r="G21" s="308"/>
-      <c r="H21" s="312">
-        <v>100</v>
-      </c>
-      <c r="I21" s="308">
-        <v>50</v>
-      </c>
+      <c r="H21" s="312"/>
+      <c r="I21" s="308"/>
       <c r="J21" s="312"/>
       <c r="K21" s="312"/>
       <c r="L21" s="308"/>
       <c r="M21" s="309"/>
-      <c r="N21" s="316">
-        <v>10</v>
-      </c>
-      <c r="O21" s="316">
-        <v>5</v>
-      </c>
+      <c r="N21" s="316"/>
+      <c r="O21" s="316"/>
       <c r="P21" s="316"/>
       <c r="Q21" s="317"/>
     </row>
@@ -14639,23 +14569,15 @@
       <c r="E22" s="308"/>
       <c r="F22" s="308"/>
       <c r="G22" s="308"/>
-      <c r="H22" s="312">
-        <v>100</v>
-      </c>
+      <c r="H22" s="312"/>
       <c r="I22" s="308"/>
       <c r="J22" s="312"/>
       <c r="K22" s="312"/>
       <c r="L22" s="308"/>
       <c r="M22" s="309"/>
-      <c r="N22" s="316">
-        <v>25</v>
-      </c>
-      <c r="O22" s="316">
-        <v>10</v>
-      </c>
-      <c r="P22" s="316">
-        <v>5</v>
-      </c>
+      <c r="N22" s="316"/>
+      <c r="O22" s="316"/>
+      <c r="P22" s="316"/>
       <c r="Q22" s="317"/>
     </row>
     <row r="23" spans="1:17" ht="18" customHeight="1">
@@ -14695,26 +14617,16 @@
       </c>
       <c r="D24" s="311"/>
       <c r="E24" s="308"/>
-      <c r="F24" s="308">
-        <v>50</v>
-      </c>
-      <c r="G24" s="308">
-        <v>50</v>
-      </c>
-      <c r="H24" s="312">
-        <v>100</v>
-      </c>
+      <c r="F24" s="308"/>
+      <c r="G24" s="308"/>
+      <c r="H24" s="312"/>
       <c r="I24" s="308"/>
       <c r="J24" s="312"/>
       <c r="K24" s="312"/>
       <c r="L24" s="308"/>
       <c r="M24" s="309"/>
-      <c r="N24" s="316">
-        <v>25</v>
-      </c>
-      <c r="O24" s="316">
-        <v>5</v>
-      </c>
+      <c r="N24" s="316"/>
+      <c r="O24" s="316"/>
       <c r="P24" s="316"/>
       <c r="Q24" s="317"/>
     </row>
@@ -14809,19 +14721,19 @@
       </c>
       <c r="F28" s="276">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G28" s="276">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="H28" s="276">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I28" s="276">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="J28" s="276">
         <f t="shared" si="0"/>
@@ -14841,15 +14753,15 @@
       </c>
       <c r="N28" s="276">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="O28" s="276">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P28" s="276">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="277"/>
     </row>
@@ -15532,7 +15444,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1">
       <c r="B1" s="403" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1" s="403"/>
       <c r="D1" s="296"/>
@@ -15905,8 +15817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16013,7 +15925,7 @@
     </row>
     <row r="5" spans="1:17" s="247" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="404" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" s="405"/>
       <c r="C5" s="318"/>
@@ -16022,7 +15934,7 @@
       </c>
       <c r="E5" s="319"/>
       <c r="F5" s="402" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G5" s="402"/>
       <c r="H5" s="402"/>
@@ -16041,10 +15953,10 @@
         <v>133</v>
       </c>
       <c r="B6" s="269" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="320" t="s">
         <v>188</v>
-      </c>
-      <c r="C6" s="320" t="s">
-        <v>189</v>
       </c>
       <c r="D6" s="269" t="s">
         <v>51</v>
@@ -16086,7 +15998,7 @@
         <v>140</v>
       </c>
       <c r="Q6" s="322" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1">
@@ -16094,10 +16006,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="323" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="179" t="s">
         <v>191</v>
-      </c>
-      <c r="C7" s="179" t="s">
-        <v>192</v>
       </c>
       <c r="D7" s="207"/>
       <c r="E7" s="179"/>
@@ -16123,10 +16035,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="323" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="179" t="s">
         <v>193</v>
-      </c>
-      <c r="C8" s="179" t="s">
-        <v>194</v>
       </c>
       <c r="D8" s="207"/>
       <c r="E8" s="179"/>
@@ -16154,10 +16066,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="323" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="179" t="s">
         <v>195</v>
-      </c>
-      <c r="C9" s="179" t="s">
-        <v>196</v>
       </c>
       <c r="D9" s="273"/>
       <c r="E9" s="179"/>
@@ -16185,10 +16097,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="323" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="179" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D10" s="273"/>
       <c r="E10" s="179"/>
@@ -16216,7 +16128,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="323" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="179" t="s">
         <v>105</v>
@@ -16245,7 +16157,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="323" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="179" t="s">
         <v>107</v>
@@ -16272,7 +16184,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="323" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" s="179" t="s">
         <v>109</v>
@@ -16299,7 +16211,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="323" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" s="179" t="s">
         <v>111</v>
@@ -16401,8 +16313,12 @@
       </c>
       <c r="D17" s="273"/>
       <c r="E17" s="179"/>
-      <c r="F17" s="301"/>
-      <c r="G17" s="301"/>
+      <c r="F17" s="301">
+        <v>200</v>
+      </c>
+      <c r="G17" s="301">
+        <v>200</v>
+      </c>
       <c r="H17" s="304">
         <v>50</v>
       </c>
@@ -16414,7 +16330,7 @@
       <c r="L17" s="301"/>
       <c r="M17" s="302"/>
       <c r="N17" s="324">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="O17" s="324">
         <v>10</v>
@@ -16650,11 +16566,11 @@
       </c>
       <c r="F28" s="276">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G28" s="276">
         <f>SUM(G7:G27)</f>
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H28" s="276">
         <f t="shared" si="0"/>
@@ -16682,7 +16598,7 @@
       </c>
       <c r="N28" s="276">
         <f>SUM(N7:N27)</f>
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="O28" s="276">
         <f>SUM(O7:O27)</f>
